--- a/zss.test/src/main/webapp/issue/book/674-save-focus-cell.xlsx
+++ b/zss.test/src/main/webapp/issue/book/674-save-focus-cell.xlsx
@@ -14,7 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -167,7 +174,9 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="true">
@@ -178,22 +187,17 @@
       <c r="A3" s="1"/>
     </row>
     <row r="4" s="4" customFormat="true">
-      <c r="B4" s="1" t="n">
-        <v>13.0</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" s="3" customFormat="true">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="n">
-        <v>1245.0</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
     <row r="7" s="5" customFormat="true">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection objects="true" scenarios="true"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.6979166666666666" right="0.6979166666666666" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
@@ -211,7 +215,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="true" baseColWidth="8"/>
   <sheetData/>
-  <sheetProtection objects="true" scenarios="true"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.6979166666666666" right="0.6979166666666666" top="0.75"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
@@ -229,7 +232,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="true" baseColWidth="8"/>
   <sheetData/>
-  <sheetProtection objects="true" scenarios="true"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.6979166666666666" right="0.6979166666666666" top="0.75"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
